--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N2">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O2">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P2">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q2">
-        <v>4.078389299775779</v>
+        <v>76.81201765620622</v>
       </c>
       <c r="R2">
-        <v>36.705503697982</v>
+        <v>691.308158905856</v>
       </c>
       <c r="S2">
-        <v>0.004580506352777413</v>
+        <v>0.06536215541385915</v>
       </c>
       <c r="T2">
-        <v>0.004580506352777413</v>
+        <v>0.06536215541385916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N3">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O3">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P3">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q3">
-        <v>72.46009638062822</v>
+        <v>96.8989584229831</v>
       </c>
       <c r="R3">
-        <v>652.1408674256539</v>
+        <v>872.0906258068479</v>
       </c>
       <c r="S3">
-        <v>0.08138113049006346</v>
+        <v>0.08245486804202395</v>
       </c>
       <c r="T3">
-        <v>0.08138113049006346</v>
+        <v>0.08245486804202397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H4">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N4">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O4">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P4">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q4">
-        <v>61.09123943717511</v>
+        <v>13.66320597253689</v>
       </c>
       <c r="R4">
-        <v>549.8211549345759</v>
+        <v>122.968853752832</v>
       </c>
       <c r="S4">
-        <v>0.06861257956821606</v>
+        <v>0.01162652172770218</v>
       </c>
       <c r="T4">
-        <v>0.06861257956821608</v>
+        <v>0.01162652172770218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H5">
         <v>172.981738</v>
       </c>
       <c r="I5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N5">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O5">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P5">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q5">
-        <v>5.928161042032446</v>
+        <v>105.3246977891915</v>
       </c>
       <c r="R5">
-        <v>53.35344937829201</v>
+        <v>947.9222801027239</v>
       </c>
       <c r="S5">
-        <v>0.006658015534419447</v>
+        <v>0.08962463786106073</v>
       </c>
       <c r="T5">
-        <v>0.006658015534419448</v>
+        <v>0.08962463786106074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
         <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N6">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O6">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P6">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q6">
-        <v>105.3246977891916</v>
+        <v>132.8679264443657</v>
       </c>
       <c r="R6">
-        <v>947.9222801027239</v>
+        <v>1195.811337999292</v>
       </c>
       <c r="S6">
-        <v>0.118291906894292</v>
+        <v>0.1130621785856988</v>
       </c>
       <c r="T6">
-        <v>0.118291906894292</v>
+        <v>0.1130621785856989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
         <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N7">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O7">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P7">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q7">
-        <v>88.79944483496178</v>
+        <v>18.73499855621422</v>
       </c>
       <c r="R7">
-        <v>799.195003514656</v>
+        <v>168.614987005928</v>
       </c>
       <c r="S7">
-        <v>0.0997321224857107</v>
+        <v>0.01594229555055516</v>
       </c>
       <c r="T7">
-        <v>0.09973212248571071</v>
+        <v>0.01594229555055516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H8">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I8">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J8">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N8">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O8">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P8">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q8">
-        <v>9.696030436936669</v>
+        <v>181.1142876452313</v>
       </c>
       <c r="R8">
-        <v>87.26427393243002</v>
+        <v>1630.028588807082</v>
       </c>
       <c r="S8">
-        <v>0.01088977185565715</v>
+        <v>0.1541167720619238</v>
       </c>
       <c r="T8">
-        <v>0.01088977185565716</v>
+        <v>0.1541167720619238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H9">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I9">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J9">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N9">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O9">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P9">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q9">
-        <v>172.2678362285233</v>
+        <v>228.4770842356006</v>
       </c>
       <c r="R9">
-        <v>1550.41052605671</v>
+        <v>2056.293758120406</v>
       </c>
       <c r="S9">
-        <v>0.1934768508409317</v>
+        <v>0.1944195080925089</v>
       </c>
       <c r="T9">
-        <v>0.1934768508409317</v>
+        <v>0.1944195080925089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H10">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N10">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O10">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P10">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q10">
-        <v>145.2393269680267</v>
+        <v>32.21633661208934</v>
       </c>
       <c r="R10">
-        <v>1307.15394271224</v>
+        <v>289.947029508804</v>
       </c>
       <c r="S10">
-        <v>0.1631206858763427</v>
+        <v>0.02741405921569938</v>
       </c>
       <c r="T10">
-        <v>0.1631206858763427</v>
+        <v>0.02741405921569939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H11">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I11">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J11">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N11">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O11">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P11">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q11">
-        <v>6.682086693417335</v>
+        <v>118.4995598924249</v>
       </c>
       <c r="R11">
-        <v>60.13878024075601</v>
+        <v>1066.496039031824</v>
       </c>
       <c r="S11">
-        <v>0.007504761880061387</v>
+        <v>0.1008356099279834</v>
       </c>
       <c r="T11">
-        <v>0.007504761880061388</v>
+        <v>0.1008356099279834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H12">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I12">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J12">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N12">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O12">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P12">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q12">
-        <v>118.7195753616147</v>
+        <v>149.4881175827324</v>
       </c>
       <c r="R12">
-        <v>1068.476178254532</v>
+        <v>1345.393058244592</v>
       </c>
       <c r="S12">
-        <v>0.1333359150321451</v>
+        <v>0.1272049071500773</v>
       </c>
       <c r="T12">
-        <v>0.1333359150321451</v>
+        <v>0.1272049071500773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H13">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I13">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J13">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N13">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O13">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P13">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q13">
-        <v>100.0926905506453</v>
+        <v>21.07852317734756</v>
       </c>
       <c r="R13">
-        <v>900.834214955808</v>
+        <v>189.706708596128</v>
       </c>
       <c r="S13">
-        <v>0.112415753189383</v>
+        <v>0.01793648637090716</v>
       </c>
       <c r="T13">
-        <v>0.1124157531893831</v>
+        <v>0.01793648637090717</v>
       </c>
     </row>
   </sheetData>
